--- a/python/1. Feladat (Kör)/Javítókulcs 1. feladat.xlsx
+++ b/python/1. Feladat (Kör)/Javítókulcs 1. feladat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\JEDLIK\IKT\Alapvizsga-feladatok\python\1. Feladat (Kör)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IKT\Alapvizsga-feladatok\python\1. Feladat (Kör)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D343330-623D-4A47-9A40-7170A1DAC0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D73F4D5-B2D5-4954-9A5F-42F020E35A48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4035" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,24 +23,11 @@
     <definedName name="TanulókNevei">Adatok!$A$4:$A$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>Jelen volt</t>
   </si>
@@ -247,12 +234,6 @@
     </r>
   </si>
   <si>
-    <t>Bekér egy sugarat.</t>
-  </si>
-  <si>
-    <t>Eltárolja a bekért sugarat.</t>
-  </si>
-  <si>
     <t>Meghatározza a kör átmérőjét.</t>
   </si>
   <si>
@@ -262,10 +243,22 @@
     <t>Meghatározza a kör kerületét.</t>
   </si>
   <si>
-    <t>A mintának megfelelően kiírja a képernyőre a kör adatait.</t>
+    <t>Kör</t>
   </si>
   <si>
-    <t>Kör</t>
+    <t>A bekért számot szám típusúvá alakítja.</t>
+  </si>
+  <si>
+    <t>A kiírt üzenetek helyesek (pl.: nincs benne elgépelés, helyesen jelennek meg a szóközök).</t>
+  </si>
+  <si>
+    <t>Létrehoz programot kor.py néven, a program hibaüzenet nélkül lefut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bekéri a felhasználótól a sugarat.</t>
+  </si>
+  <si>
+    <t>A sugarat eltárolja.</t>
   </si>
 </sst>
 </file>
@@ -2796,7 +2789,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30898E6D-8620-49F5-B7EC-9E3C7D4941AA}" type="CELLRANGE">
+                    <a:fld id="{ECFDA195-7AA6-4FB5-977D-A87DCAC1B6AD}" type="CELLRANGE">
                       <a:rPr lang="hu-HU"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2806,7 +2799,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{7C1A8011-6C65-464D-88A7-657C95106194}" type="VALUE">
+                    <a:fld id="{A429FA27-CAF4-491C-ABE1-F5B5C7597AAB}" type="VALUE">
                       <a:rPr lang="hu-HU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ÉRTÉK]</a:t>
@@ -2842,7 +2835,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0036A3D6-E859-487B-939E-60EAA43D20B8}" type="CELLRANGE">
+                    <a:fld id="{9D1EC015-4A9B-4A20-9932-E49137CECEDC}" type="CELLRANGE">
                       <a:rPr lang="hu-HU"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2852,7 +2845,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{40DE975E-E554-42DB-AC5F-70E7861E4780}" type="VALUE">
+                    <a:fld id="{24F465BA-3956-4178-90DC-21639E0DEAFB}" type="VALUE">
                       <a:rPr lang="hu-HU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ÉRTÉK]</a:t>
@@ -2888,7 +2881,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C6633EE-B74D-4B4E-B11F-7B85A3476EE1}" type="CELLRANGE">
+                    <a:fld id="{9929FB5E-8841-4FB0-AE4D-1B224105AC52}" type="CELLRANGE">
                       <a:rPr lang="hu-HU"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -2898,7 +2891,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{1352074D-2C26-4705-8659-0DA3193B188D}" type="VALUE">
+                    <a:fld id="{24E0F266-8E1F-4114-843C-05F3B1CD9510}" type="VALUE">
                       <a:rPr lang="hu-HU" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ÉRTÉK]</a:t>
@@ -4026,9 +4019,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4066,9 +4059,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4101,9 +4094,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4136,9 +4146,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4318,10 +4345,10 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4369,7 +4396,7 @@
   <sheetData>
     <row r="1" spans="1:45" s="28" customFormat="1" ht="134.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" s="97" t="s">
         <v>6</v>
@@ -4384,25 +4411,29 @@
         <v>20</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H1" s="86" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I1" s="86" t="s">
         <v>68</v>
       </c>
       <c r="J1" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K1" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
       <c r="N1" s="86"/>
       <c r="O1" s="86"/>
       <c r="P1" s="86"/>
@@ -4471,8 +4502,12 @@
       <c r="K2" s="83">
         <v>6</v>
       </c>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
+      <c r="L2" s="83">
+        <v>7</v>
+      </c>
+      <c r="M2" s="83">
+        <v>8</v>
+      </c>
       <c r="N2" s="83"/>
       <c r="O2" s="83"/>
       <c r="P2" s="83"/>
@@ -4536,8 +4571,12 @@
       <c r="K3" s="37">
         <v>1</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="L3" s="37">
+        <v>1</v>
+      </c>
+      <c r="M3" s="37">
+        <v>1</v>
+      </c>
       <c r="N3" s="37"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
@@ -4571,7 +4610,7 @@
       </c>
       <c r="AO3" s="38">
         <f>SUM($F3:AL3)+$E$3+$AM$3+$AN$3</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP3" s="39">
         <f t="shared" ref="AP3" si="0">AO3/$AO$3</f>
@@ -7178,7 +7217,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:U20">
+  <sortState ref="A4:U20">
     <sortCondition ref="A4:A20"/>
   </sortState>
   <mergeCells count="13">
@@ -7506,7 +7545,7 @@
       </c>
       <c r="B2" s="14">
         <f>ROUNDUP(Adatok!$AO$3*Jegyek!A2,1)</f>
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -7551,7 +7590,7 @@
       </c>
       <c r="B4" s="14">
         <f>ROUNDUP(Adatok!$AO$3*Jegyek!A4,1)</f>
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -7567,7 +7606,7 @@
       </c>
       <c r="B5" s="14">
         <f>ROUNDUP(Adatok!$AO$3*Jegyek!A5,1)</f>
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C5" s="9">
         <v>3</v>
@@ -7583,7 +7622,7 @@
       </c>
       <c r="B6" s="14">
         <f>ROUNDUP(Adatok!$AO$3*Jegyek!A6,1)</f>
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="C6" s="9">
         <v>4</v>
@@ -7599,7 +7638,7 @@
       </c>
       <c r="B7" s="14">
         <f>ROUNDUP(Adatok!$AO$3*Jegyek!A7,1)</f>
-        <v>5.0999999999999996</v>
+        <v>6.8</v>
       </c>
       <c r="C7" s="9">
         <v>5</v>
@@ -7612,7 +7651,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
         <f>Adatok!AO3</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11">
         <f>B10/$B$10</f>
